--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_18.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A8D546-79CD-B04E-B462-08DDD0039AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A53365-31E4-644C-9721-13D992E9EF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{ABBDDBD5-2B18-7745-AA3C-EB7E3E0E92B5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="167">
   <si>
     <t>Vital Signs Test Name</t>
   </si>
@@ -534,30 +534,19 @@
   </si>
   <si>
     <t>INACTIVE_F</t>
-  </si>
-  <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,9 +569,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,15 +885,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8522D374-02E8-F641-8C34-3E873D76D7CC}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -960,14 +948,8 @@
       <c r="R1" t="s">
         <v>166</v>
       </c>
-      <c r="S1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1022,14 +1004,8 @@
       <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="S2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1084,14 +1060,8 @@
       <c r="R3" t="s">
         <v>7</v>
       </c>
-      <c r="S3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1146,14 +1116,8 @@
       <c r="R4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1208,14 +1172,8 @@
       <c r="R5" t="s">
         <v>7</v>
       </c>
-      <c r="S5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1270,14 +1228,8 @@
       <c r="R6" t="s">
         <v>7</v>
       </c>
-      <c r="S6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1332,14 +1284,8 @@
       <c r="R7" t="s">
         <v>7</v>
       </c>
-      <c r="S7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1394,14 +1340,8 @@
       <c r="R8" t="s">
         <v>7</v>
       </c>
-      <c r="S8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1456,14 +1396,8 @@
       <c r="R9" t="s">
         <v>7</v>
       </c>
-      <c r="S9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1518,14 +1452,8 @@
       <c r="R10" t="s">
         <v>7</v>
       </c>
-      <c r="S10" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1580,14 +1508,8 @@
       <c r="R11" t="s">
         <v>7</v>
       </c>
-      <c r="S11" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1642,14 +1564,8 @@
       <c r="R12" t="s">
         <v>7</v>
       </c>
-      <c r="S12" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1704,14 +1620,8 @@
       <c r="R13" t="s">
         <v>7</v>
       </c>
-      <c r="S13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1766,14 +1676,8 @@
       <c r="R14" t="s">
         <v>7</v>
       </c>
-      <c r="S14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1828,14 +1732,8 @@
       <c r="R15" t="s">
         <v>7</v>
       </c>
-      <c r="S15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1890,14 +1788,8 @@
       <c r="R16" t="s">
         <v>7</v>
       </c>
-      <c r="S16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1952,14 +1844,8 @@
       <c r="R17" t="s">
         <v>7</v>
       </c>
-      <c r="S17" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2014,14 +1900,8 @@
       <c r="R18" t="s">
         <v>7</v>
       </c>
-      <c r="S18" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2076,14 +1956,8 @@
       <c r="R19" t="s">
         <v>7</v>
       </c>
-      <c r="S19" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2138,14 +2012,8 @@
       <c r="R20" t="s">
         <v>7</v>
       </c>
-      <c r="S20" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2200,14 +2068,8 @@
       <c r="R21" t="s">
         <v>7</v>
       </c>
-      <c r="S21" t="s">
-        <v>7</v>
-      </c>
-      <c r="T21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2262,14 +2124,8 @@
       <c r="R22" t="s">
         <v>7</v>
       </c>
-      <c r="S22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2324,14 +2180,8 @@
       <c r="R23" t="s">
         <v>7</v>
       </c>
-      <c r="S23" t="s">
-        <v>7</v>
-      </c>
-      <c r="T23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2386,14 +2236,8 @@
       <c r="R24" t="s">
         <v>7</v>
       </c>
-      <c r="S24" t="s">
-        <v>7</v>
-      </c>
-      <c r="T24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2448,14 +2292,8 @@
       <c r="R25" t="s">
         <v>7</v>
       </c>
-      <c r="S25" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2510,14 +2348,8 @@
       <c r="R26" t="s">
         <v>7</v>
       </c>
-      <c r="S26" t="s">
-        <v>7</v>
-      </c>
-      <c r="T26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2572,14 +2404,8 @@
       <c r="R27" t="s">
         <v>7</v>
       </c>
-      <c r="S27" t="s">
-        <v>7</v>
-      </c>
-      <c r="T27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2634,14 +2460,8 @@
       <c r="R28" t="s">
         <v>7</v>
       </c>
-      <c r="S28" t="s">
-        <v>7</v>
-      </c>
-      <c r="T28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2696,14 +2516,8 @@
       <c r="R29" t="s">
         <v>7</v>
       </c>
-      <c r="S29" t="s">
-        <v>7</v>
-      </c>
-      <c r="T29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2758,14 +2572,8 @@
       <c r="R30" t="s">
         <v>7</v>
       </c>
-      <c r="S30" t="s">
-        <v>10</v>
-      </c>
-      <c r="T30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2820,14 +2628,8 @@
       <c r="R31" t="s">
         <v>7</v>
       </c>
-      <c r="S31" t="s">
-        <v>10</v>
-      </c>
-      <c r="T31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2882,14 +2684,8 @@
       <c r="R32" t="s">
         <v>7</v>
       </c>
-      <c r="S32" t="s">
-        <v>10</v>
-      </c>
-      <c r="T32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2944,14 +2740,8 @@
       <c r="R33" t="s">
         <v>7</v>
       </c>
-      <c r="S33" t="s">
-        <v>10</v>
-      </c>
-      <c r="T33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3006,14 +2796,8 @@
       <c r="R34" t="s">
         <v>7</v>
       </c>
-      <c r="S34" t="s">
-        <v>10</v>
-      </c>
-      <c r="T34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3068,14 +2852,8 @@
       <c r="R35" t="s">
         <v>7</v>
       </c>
-      <c r="S35" t="s">
-        <v>10</v>
-      </c>
-      <c r="T35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3130,14 +2908,8 @@
       <c r="R36" t="s">
         <v>7</v>
       </c>
-      <c r="S36" t="s">
-        <v>10</v>
-      </c>
-      <c r="T36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3192,14 +2964,8 @@
       <c r="R37" t="s">
         <v>7</v>
       </c>
-      <c r="S37" t="s">
-        <v>10</v>
-      </c>
-      <c r="T37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3254,14 +3020,8 @@
       <c r="R38" t="s">
         <v>7</v>
       </c>
-      <c r="S38" t="s">
-        <v>10</v>
-      </c>
-      <c r="T38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3316,14 +3076,8 @@
       <c r="R39" t="s">
         <v>7</v>
       </c>
-      <c r="S39" t="s">
-        <v>10</v>
-      </c>
-      <c r="T39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3378,14 +3132,8 @@
       <c r="R40" t="s">
         <v>7</v>
       </c>
-      <c r="S40" t="s">
-        <v>10</v>
-      </c>
-      <c r="T40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3440,14 +3188,8 @@
       <c r="R41" t="s">
         <v>7</v>
       </c>
-      <c r="S41" t="s">
-        <v>10</v>
-      </c>
-      <c r="T41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3502,14 +3244,8 @@
       <c r="R42" t="s">
         <v>7</v>
       </c>
-      <c r="S42" t="s">
-        <v>10</v>
-      </c>
-      <c r="T42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3564,14 +3300,8 @@
       <c r="R43" t="s">
         <v>7</v>
       </c>
-      <c r="S43" t="s">
-        <v>10</v>
-      </c>
-      <c r="T43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3626,14 +3356,8 @@
       <c r="R44" t="s">
         <v>7</v>
       </c>
-      <c r="S44" t="s">
-        <v>10</v>
-      </c>
-      <c r="T44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3688,14 +3412,8 @@
       <c r="R45" t="s">
         <v>7</v>
       </c>
-      <c r="S45" t="s">
-        <v>10</v>
-      </c>
-      <c r="T45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3750,14 +3468,8 @@
       <c r="R46" t="s">
         <v>7</v>
       </c>
-      <c r="S46" t="s">
-        <v>7</v>
-      </c>
-      <c r="T46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3812,14 +3524,8 @@
       <c r="R47" t="s">
         <v>7</v>
       </c>
-      <c r="S47" t="s">
-        <v>7</v>
-      </c>
-      <c r="T47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3873,12 +3579,6 @@
       </c>
       <c r="R48" t="s">
         <v>7</v>
-      </c>
-      <c r="S48" t="s">
-        <v>10</v>
-      </c>
-      <c r="T48" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
